--- a/biology/Zoologie/Le_Dino_Train/Le_Dino_Train.xlsx
+++ b/biology/Zoologie/Le_Dino_Train/Le_Dino_Train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dino Train (Dinosaur Train) est une série télévisée d'animation singapouro-canado-américaine en cent épisodes de 28 minutes créée par Craig Bartlett, produite par The Jim Henson Company, et diffusée entre le 7 septembre 2009 et le 15 juin 2020 sur PBS Kids.
-Au Canada francophone, elle est diffusée à partir du 6 septembre 2010 sur TFO[1], et en France à partir du le 25 novembre 2010 sur France 5 dans Zouzous, et rediffusée sur Piwi depuis le 14 mars 2011[2].
+Au Canada francophone, elle est diffusée à partir du 6 septembre 2010 sur TFO, et en France à partir du le 25 novembre 2010 sur France 5 dans Zouzous, et rediffusée sur Piwi depuis le 14 mars 2011.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il raconte l'histoire de Samy, un jeune tyrannosaure adopté par une famille de ptéranodons, qui parcourt le monde des dinosaures à bord du Dino Train, pour découvrir les différentes espèces de dinosaures.
 </t>
@@ -543,7 +557,9 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiny, Lili et Téo sont trois bébés ptéranodons. Un bébé tyrannosaure, Samy, a lui aussi éclos dans le nid de Maman Ptéranodon, sans qu'on sache trop pourquoi. Papa et Maman Ptéranodon ont décidé de l'adopter, et Samy vit avec ses frères et sœurs adoptifs. Régulièrement, toute la famille embarque à bord du Dino Train, un train qui transporte les dinosaures, à différents endroits, mais aussi à différentes époques ! En effet, le Dino Train peut emprunter le tunnel du temps, pour passer d'une époque à une autre, et ainsi visiter les dinosaures qui vivaient à des époques différentes.
 À bord du Dino Train, Samy et ses frères et sœurs retrouvent le Contrôleur, un troodon très intelligent, qui sait plein de choses sur les dinosaures et les autres animaux préhistoriques. Il invite les enfants à découvrir à chaque épisode une espèce différente.
@@ -577,17 +593,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Phillip Corlett : Buddy Tyrannosaurus (première voix)
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phillip Corlett : Buddy Tyrannosaurus (première voix)
 Sean Thomas : Buddy Tyrannosaurus (deuxième voix)
 Dayton Wall : Buddy Tyrannosaurus (troisième voix)
 Claire Corlett (en) : Tiny Pteranodon, Polly Polycotylus
-Ian James Corlett : Mr. Conductor, Adam Adocus, Alan Alamosaurus, Elliott Enantiornithine (in "Now with Feathers!"), Morris Stegosaurus, Mr. Argentinosaurus, Mr. Daspletosaurus, Mr. Elasmosaurus, Stuart Stygimoloch, Travis Troodon, Triceratops, Troodon Official, Vincent Velociraptor, Teddy Pterodaustro, Frankie Fruitafossor, Troodon Waiter
-Voix françaises
-Stéphane Excoffier : Théo
-Raphaëlle Bruneau : Sammy
-Audrey D'Hulstère : Lili
-Séverine Cayron : Tiny</t>
+Ian James Corlett : Mr. Conductor, Adam Adocus, Alan Alamosaurus, Elliott Enantiornithine (in "Now with Feathers!"), Morris Stegosaurus, Mr. Argentinosaurus, Mr. Daspletosaurus, Mr. Elasmosaurus, Stuart Stygimoloch, Travis Troodon, Triceratops, Troodon Official, Vincent Velociraptor, Teddy Pterodaustro, Frankie Fruitafossor, Troodon Waiter</t>
         </is>
       </c>
     </row>
@@ -612,12 +628,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stéphane Excoffier : Théo
+Raphaëlle Bruneau : Sammy
+Audrey D'Hulstère : Lili
+Séverine Cayron : Tiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Dino_Train</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Dino_Train</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Saison 1
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Vallée des Stygimolochs
 Pêcher en équipe
 Il fait trop chaud !
@@ -698,10 +759,43 @@
 Elmer découvre le désert
 La fête du Dino train
 L'expédition des contrôleurs juniors
-Saison 2
-Saison 3
-Saison 4
-Le vieux spinosaure prend la pose
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Dino_Train</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Dino_Train</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le vieux spinosaure prend la pose
 La fête du solstice d’hiver
 Le train tunnel
 L’école des contrôleurs juniors
@@ -717,31 +811,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Le_Dino_Train</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Dino_Train</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Le Dino Train et les sciences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dino Train est une série éducative, qui essaye de montrer aux enfants les dinosaures d'un point de vue scientifique, en évitant les erreurs. Mais c'est très difficile, et tout ce qui est dit dans le dessin animé n'est pas forcément vrai : par exemple, on dit que les ptéranodons sont des dinosaures, alors qu'ils font partie du groupe des ptérosaures (des reptiles volants, cousins des dinosaures).
 Le dessin animé inclut de nombreuses découvertes scientifiques récentes : par exemple, il y est clairement dit que les oiseaux sont des dinosaures, bien qu'on n'en soit sûr que depuis quelques années seulement. De nombreux dinosaures, autres que les oiseaux, ont également des plumes, ce qui est également exact.
